--- a/Excel_Data/src/resources/data.xlsx
+++ b/Excel_Data/src/resources/data.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13350" windowHeight="3495"/>
   </bookViews>
   <sheets>
     <sheet name="home" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -386,7 +387,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
